--- a/config/excel/CrystalInitViceAtt.xlsx
+++ b/config/excel/CrystalInitViceAtt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31340" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="CrystalInitViceAtt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0">
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-最高品质的至少多出2条</t>
+最高品质的至少多出2条
+</t>
         </r>
       </text>
     </comment>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -119,15 +120,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -144,15 +150,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,6 +181,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -177,22 +239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,53 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -276,28 +301,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -315,13 +327,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,181 +369,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,6 +558,21 @@
         <color indexed="10"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,17 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,8 +638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +669,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -652,36 +694,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,156 +712,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -864,68 +876,68 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2073,24 +2085,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5384615384615" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3083333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5384615384615" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5416666666667" style="1" customWidth="1"/>
     <col min="9" max="16379" width="6" style="1" customWidth="1"/>
     <col min="16380" max="16384" width="6" style="1"/>
   </cols>
@@ -2107,7 +2119,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="101" spans="1:8">
+    <row r="2" ht="81" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2125,91 +2137,91 @@
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.8" spans="1:8">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:8">
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="3"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:8">
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="3"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
-    <row r="6" ht="16.8" spans="1:8">
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:8">
+    <row r="7" ht="13.5" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7" s="12">
@@ -2221,16 +2233,16 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:8">
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>100</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8" s="12">
@@ -2242,16 +2254,16 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:8">
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>100</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>30</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
       <c r="G9" s="12">
@@ -2263,16 +2275,16 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:8">
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>30</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>100</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>10</v>
       </c>
       <c r="G10" s="12">
@@ -2284,16 +2296,16 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:8">
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>100</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>30</v>
       </c>
       <c r="G11" s="12">
@@ -2302,6 +2314,27 @@
       <c r="H11" s="12" t="str">
         <f>D11&amp;","&amp;E11&amp;","&amp;F11&amp;","&amp;G11</f>
         <v>0,100,30,3</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:8">
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>100</v>
+      </c>
+      <c r="F12" s="11">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f>D12&amp;","&amp;E12&amp;","&amp;F12&amp;","&amp;G12</f>
+        <v>0,100,50,10</v>
       </c>
     </row>
   </sheetData>
